--- a/RUDN/Importance/Varible_reg_in_Australia and New Zealand.xlsx
+++ b/RUDN/Importance/Varible_reg_in_Australia and New Zealand.xlsx
@@ -14,123 +14,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
   <si>
     <t>Age dependency ratio, old</t>
   </si>
   <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
     <t>Access to anti-retroviral drugs, female (%)</t>
   </si>
   <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
     <t>Health expenditure, total (% of GDP)</t>
   </si>
   <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
     <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
   </si>
   <si>
-    <t>Age population, age 09, male, interpolated</t>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
   </si>
   <si>
     <t>Employment in industry, male (% of male employment)</t>
   </si>
   <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, female (%)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
   </si>
 </sst>
 </file>
@@ -488,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1044776141643524</v>
+        <v>0.09090909361839294</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -512,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.08955223858356476</v>
+        <v>0.07575757801532745</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -520,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.05970149114727974</v>
+        <v>0.06060606241226196</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -528,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.05970149114727974</v>
+        <v>0.04545454680919647</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -536,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04477611929178238</v>
+        <v>0.04545454680919647</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -544,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.02985074557363987</v>
+        <v>0.04545454680919647</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -552,7 +549,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.02985074557363987</v>
+        <v>0.04545454680919647</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -560,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.02985074557363987</v>
+        <v>0.03030303120613098</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -568,7 +565,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.02985074557363987</v>
+        <v>0.03030303120613098</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -576,7 +573,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.02985074557363987</v>
+        <v>0.03030303120613098</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -584,7 +581,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.02985074557363987</v>
+        <v>0.03030303120613098</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -592,7 +589,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.02985074557363987</v>
+        <v>0.03030303120613098</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -600,7 +597,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.02985074557363987</v>
+        <v>0.03030303120613098</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -608,7 +605,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.02985074557363987</v>
+        <v>0.03030303120613098</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -616,7 +613,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.01492537278681993</v>
+        <v>0.03030303120613098</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -624,7 +621,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.01492537278681993</v>
+        <v>0.01515151560306549</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -632,7 +629,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.01492537278681993</v>
+        <v>0.01515151560306549</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -640,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.01492537278681993</v>
+        <v>0.01515151560306549</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -648,7 +645,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.01492537278681993</v>
+        <v>0.01515151560306549</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -656,7 +653,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.01492537278681993</v>
+        <v>0.01515151560306549</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -664,7 +661,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.01492537278681993</v>
+        <v>0.01515151560306549</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -672,7 +669,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.01492537278681993</v>
+        <v>0.01515151560306549</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -680,7 +677,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.01492537278681993</v>
+        <v>0.01515151560306549</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -688,7 +685,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.01492537278681993</v>
+        <v>0.01515151560306549</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -696,7 +693,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.01492537278681993</v>
+        <v>0.01515151560306549</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -704,7 +701,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.01492537278681993</v>
+        <v>0.01515151560306549</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -712,7 +709,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.01492537278681993</v>
+        <v>0.01515151560306549</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -720,7 +717,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.01492537278681993</v>
+        <v>0.01515151560306549</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -728,7 +725,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.01492537278681993</v>
+        <v>0.01515151560306549</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -736,7 +733,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.01492537278681993</v>
+        <v>0.01515151560306549</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -744,7 +741,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.01492537278681993</v>
+        <v>0.01515151560306549</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -752,7 +749,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.01492537278681993</v>
+        <v>0.01515151560306549</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -760,7 +757,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.01492537278681993</v>
+        <v>0.01515151560306549</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -768,7 +765,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.01492537278681993</v>
+        <v>0.01515151560306549</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -776,7 +773,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.01492537278681993</v>
+        <v>0.01515151560306549</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -784,7 +781,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.01492537278681993</v>
+        <v>0.01515151560306549</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -792,7 +789,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.01492537278681993</v>
+        <v>0.01515151560306549</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -800,15 +797,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.01492537278681993</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>0.01492537278681993</v>
+        <v>0.01515151560306549</v>
       </c>
     </row>
   </sheetData>
